--- a/Project_Documentation/EECS 581 - Project 3 Requirements.xlsx
+++ b/Project_Documentation/EECS 581 - Project 3 Requirements.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/e982z299_home_ku_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28DEE90-9377-4AFC-89BD-5E9F02816121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CE13E6-E27D-4EB7-8C0B-F6F0E986D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Reference Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements Stack" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1 Release &amp; Sprint 2 Req" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 3 Requirements" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -268,13 +270,103 @@
   </si>
   <si>
     <t>An HTML page, CSS design if needed, and JavaScript file for Ride the Bus</t>
+  </si>
+  <si>
+    <t>Sprint 1 Requirement Description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The GitHub Repository to push changes and receive changes to send changes.</t>
+  </si>
+  <si>
+    <t>The main menu will have five buttons that will change the page to the respective game.</t>
+  </si>
+  <si>
+    <t>The directory will contain all the files needed for the specific game.</t>
+  </si>
+  <si>
+    <t>The back button simply returns back to the main menu page.</t>
+  </si>
+  <si>
+    <t>An HTML page for Baccarat that is different from main menu and other games.</t>
+  </si>
+  <si>
+    <t>An HTML page for Blackjack that is different from main menu and other games.</t>
+  </si>
+  <si>
+    <t>An HTML page for Crash that is different from main menu and other games.</t>
+  </si>
+  <si>
+    <t>An HTML page for Picture Poker that is different from main menu and other games.</t>
+  </si>
+  <si>
+    <t>An HTML page for Ride the Bus that is different from main menu and other games.</t>
+  </si>
+  <si>
+    <t>A stack data structure (array) with methods push, pop, empty, and top.</t>
+  </si>
+  <si>
+    <t>Sprint 2 Requirement Description</t>
+  </si>
+  <si>
+    <t>The global currency that will be used in all games.</t>
+  </si>
+  <si>
+    <t>A function that utilize the stack class that will shuffle the "deck of cards".</t>
+  </si>
+  <si>
+    <t>A function to read values.</t>
+  </si>
+  <si>
+    <t>A logic of the game Crash</t>
+  </si>
+  <si>
+    <t>A logic of the game Blackjack</t>
+  </si>
+  <si>
+    <t>A logic of the game Baccarat</t>
+  </si>
+  <si>
+    <t>Logics of the game Ride the Bus</t>
+  </si>
+  <si>
+    <t>A save button that can protect the current status from resetting.</t>
+  </si>
+  <si>
+    <t>Sprint 3 Requirement Description</t>
+  </si>
+  <si>
+    <t>A split from the bank webpage. Will allow money to be spent.</t>
+  </si>
+  <si>
+    <t>A matching algorithm that will detect pair, two-pair, full-house, etc.</t>
+  </si>
+  <si>
+    <t>A system where the AI and the player compete against each other.</t>
+  </si>
+  <si>
+    <t>A simple communication to state whether the AI won or the player won.</t>
+  </si>
+  <si>
+    <t>A UI graph that will raise, paralleling the multiplier raising</t>
+  </si>
+  <si>
+    <t>A feature that enables betting on tie, player, or banker.</t>
+  </si>
+  <si>
+    <t>An optional feature that enables set bets in Baccarat</t>
+  </si>
+  <si>
+    <t>A simple save button that will retain the currency of the user.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +388,22 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,18 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,51 +555,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="43">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border>
@@ -551,7 +628,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -574,6 +650,43 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -587,6 +700,18 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color rgb="FF000000"/>
         </vertical>
@@ -596,8 +721,95 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color rgb="FF000000"/>
@@ -647,6 +859,319 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -690,6 +1215,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -710,6 +1238,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -732,6 +1263,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="center" vertical="center"/>
       <border>
         <left style="thin">
@@ -755,6 +1289,9 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border>
         <left/>
@@ -804,6 +1341,11 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -837,34 +1379,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{397B034B-F86A-41B9-9536-3C8EF669B07E}" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{397B034B-F86A-41B9-9536-3C8EF669B07E}" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:D25" xr:uid="{397B034B-F86A-41B9-9536-3C8EF669B07E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
     <sortCondition ref="A1:A25"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{64953C02-112F-4FAD-A01F-6D46CF9DD874}" name="Reference Story No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1AC68898-6BEB-4CCC-9AD8-E10A1E431173}" name="Story Pool" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{648E0754-E461-41FC-89C5-80B81AA4BEC8}" name="Story Source" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8A6E4532-5EDD-4298-985A-9EAE9537CCDA}" name="Summary (25-50 words)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{64953C02-112F-4FAD-A01F-6D46CF9DD874}" name="Reference Story No." dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1AC68898-6BEB-4CCC-9AD8-E10A1E431173}" name="Story Pool" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{648E0754-E461-41FC-89C5-80B81AA4BEC8}" name="Story Source" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{8A6E4532-5EDD-4298-985A-9EAE9537CCDA}" name="Summary (25-50 words)" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A4B133-D620-4433-AC38-8F7AEE6E37D1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67A4B133-D620-4433-AC38-8F7AEE6E37D1}" name="Table2" displayName="Table2" ref="A1:E36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:E36" xr:uid="{67A4B133-D620-4433-AC38-8F7AEE6E37D1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{40B81F88-7144-48C0-A916-ECFC84D44B49}" name="Requirement ID" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{40B81F88-7144-48C0-A916-ECFC84D44B49}" name="Requirement ID" dataDxfId="28">
       <calculatedColumnFormula>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{01A6A2A8-C840-4515-ABF2-216C3BEF1364}" name="Requirement Description" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{81F21331-001B-4167-886E-CC7BFAA79B1B}" name="Story Points" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{233D39CE-E00D-45F7-BFA5-250C85444F9C}" name="Priority" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9AEF89DE-FE94-4998-AD62-DEBC5D802208}" name="Sprint No." dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{01A6A2A8-C840-4515-ABF2-216C3BEF1364}" name="Requirement Description" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{81F21331-001B-4167-886E-CC7BFAA79B1B}" name="Story Points" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{233D39CE-E00D-45F7-BFA5-250C85444F9C}" name="Priority" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{9AEF89DE-FE94-4998-AD62-DEBC5D802208}" name="Sprint No." dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C774A7-403E-4114-8726-7E8634200959}" name="Table3" displayName="Table3" ref="A1:D11" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:D11" xr:uid="{B0C774A7-403E-4114-8726-7E8634200959}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4CEF88DB-6ED0-45CD-9A51-301B35A853A1}" name="Sprint 1 Requirement Description" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9A86D3A8-4D0A-43BF-8747-ED963FDF4B75}" name="Description" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{DF4CBFCB-D6AC-42B8-A258-F7AE3B2D0E52}" name="Story Points" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{6F58634D-9663-4F8F-8D67-5C501A1612CE}" name="Priority" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FFB482EC-B862-47E2-B489-2300BDCF6F0F}" name="Table4" displayName="Table4" ref="A13:D21" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A13:D21" xr:uid="{FFB482EC-B862-47E2-B489-2300BDCF6F0F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7678C058-3985-4D08-A3A2-AD8FC66187EE}" name="Sprint 2 Requirement Description" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B628C298-BEBC-4668-8925-EB2F207DEB51}" name="Description" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CA3BEDF2-6ACA-4C35-8974-7EBCA0FFE239}" name="Story Points" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{33D72BAB-8F88-4439-87EB-96FBA2F877D6}" name="Priority" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E8DA3E0-B8E8-4E01-BE87-62E1D93B1384}" name="Table36" displayName="Table36" ref="A1:D9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D9" xr:uid="{8E8DA3E0-B8E8-4E01-BE87-62E1D93B1384}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0B8CA7B2-72E1-4F5A-AE42-40A10488D4B2}" name="Sprint 3 Requirement Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C97D881C-FC64-4BB4-93A0-39CF3508B85B}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D6310124-A0BD-429A-9EF1-2245C1CE4C69}" name="Story Points" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5037D07C-A9CE-48D9-BF15-84255D461ACC}" name="Priority" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1187,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1209,12 +1790,12 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -1223,12 +1804,12 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -1237,12 +1818,12 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -1251,12 +1832,12 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1265,12 +1846,12 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1279,12 +1860,12 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1293,12 +1874,12 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1307,12 +1888,12 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1321,12 +1902,12 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -1335,12 +1916,12 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -1349,12 +1930,12 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1363,12 +1944,12 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -1377,12 +1958,12 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -1391,12 +1972,12 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -1405,12 +1986,12 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -1419,12 +2000,12 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -1433,12 +2014,12 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -1447,12 +2028,12 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="3">
@@ -1461,12 +2042,12 @@
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="3">
@@ -1475,12 +2056,12 @@
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="3">
@@ -1489,12 +2070,12 @@
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="3">
@@ -1503,12 +2084,12 @@
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="3">
@@ -1517,12 +2098,12 @@
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="3">
@@ -1531,12 +2112,12 @@
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="5">
@@ -1545,7 +2126,7 @@
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1561,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D93F3-A38E-40E5-B4FE-B913952155AA}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1575,42 +2156,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17">
+      <c r="A2" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>2</v>
       </c>
@@ -1623,30 +2204,30 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>4</v>
       </c>
@@ -1659,28 +2240,30 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16"/>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>6</v>
       </c>
@@ -1693,26 +2276,28 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>8</v>
       </c>
@@ -1725,26 +2310,26 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>10</v>
       </c>
@@ -1757,28 +2342,30 @@
       <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>12</v>
       </c>
@@ -1791,26 +2378,28 @@
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="8">
+      <c r="A15" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>14</v>
       </c>
@@ -1823,26 +2412,26 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>16</v>
       </c>
@@ -1855,26 +2444,30 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="8">
+      <c r="A19" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>18</v>
       </c>
@@ -1887,26 +2480,28 @@
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="17">
+      <c r="A20" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16"/>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="8">
+      <c r="A21" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>20</v>
       </c>
@@ -1919,26 +2514,30 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="17">
+      <c r="A22" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="13">
-        <v>2</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="8">
+      <c r="A23" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>22</v>
       </c>
@@ -1951,26 +2550,28 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="17">
+      <c r="A24" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13">
-        <v>2</v>
-      </c>
-      <c r="E24" s="16"/>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="8">
+      <c r="A25" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>24</v>
       </c>
@@ -1983,58 +2584,62 @@
       <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="17">
+      <c r="A26" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16"/>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="24">
+      <c r="A27" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>2</v>
-      </c>
-      <c r="E27" s="26"/>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="17">
+      <c r="A28" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="8">
+      <c r="A29" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>28</v>
       </c>
@@ -2047,26 +2652,26 @@
       <c r="D29" s="3">
         <v>6</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="17">
+      <c r="A30" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="13">
-        <v>2</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
         <v>6</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="8">
+      <c r="A31" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>30</v>
       </c>
@@ -2079,10 +2684,10 @@
       <c r="D31" s="3">
         <v>5</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="8">
+      <c r="A32" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>31</v>
       </c>
@@ -2095,12 +2700,12 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="8">
+      <c r="A33" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>32</v>
       </c>
@@ -2113,12 +2718,12 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="8">
+      <c r="A34" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>33</v>
       </c>
@@ -2131,12 +2736,12 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="8">
+      <c r="A35" s="14">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>34</v>
       </c>
@@ -2149,12 +2754,12 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="9">
+      <c r="A36" s="16">
         <f>ROW() - ROW(Table2[[#Headers],[Requirement ID]])</f>
         <v>35</v>
       </c>
@@ -2167,7 +2772,7 @@
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2554,6 +3159,464 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2EDAC6-B3D6-436F-9450-BCFE4AC03450}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="13">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C8F16A-358D-4D8E-81D3-4946F62290AD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
